--- a/defects/TPO - TC and Defect - PE-53.xlsx
+++ b/defects/TPO - TC and Defect - PE-53.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Aplicaciones\Proyectos\TestingAplicaciones-MatrixTesters-TPO\defects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191DD57E-9245-4C17-AEEA-A0C087291BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB79AA85-86FA-4D4A-81FF-CE6DCDF4B5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="1695" yWindow="1605" windowWidth="24270" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Defect Report - MT-01" sheetId="2" r:id="rId1"/>
-    <sheet name="Defect Report - MT-01 (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Defect Report - MT-02" sheetId="5" r:id="rId3"/>
+    <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Defect MT-09" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +37,157 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>TC-01</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Test the Login Functionality in Banking</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Jane Williams</t>
+  </si>
+  <si>
+    <t>QA Tester’s Log</t>
+  </si>
+  <si>
+    <t>Review comments from Jane incorprated in version 2.1</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>TC Priority (High, Normal, Low)</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>S #</t>
+  </si>
+  <si>
+    <t>Prerequisites:</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Access to Chrome Browser</t>
+  </si>
+  <si>
+    <t>Userid = mg12345</t>
+  </si>
+  <si>
+    <t>Pass = df12@434c</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Verify customer can login after entering valid userid and password</t>
+  </si>
+  <si>
+    <t>Executions</t>
+  </si>
+  <si>
+    <t>User Stories covered</t>
+  </si>
+  <si>
+    <t>US-1, US-4</t>
+  </si>
+  <si>
+    <t>Automation Status</t>
+  </si>
+  <si>
+    <t>Not Automated</t>
+  </si>
+  <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Regression 2</t>
+  </si>
+  <si>
+    <t>Regression 3</t>
+  </si>
+  <si>
+    <t>Regression 4</t>
+  </si>
+  <si>
+    <t>Tester: Sam Peters</t>
+  </si>
+  <si>
+    <t>Tester: Jane Williams</t>
+  </si>
+  <si>
+    <t>Tester:</t>
+  </si>
+  <si>
+    <t>Step #</t>
+  </si>
+  <si>
+    <t>Step Details</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>Navigate to http://demo.guru99.com</t>
+  </si>
+  <si>
+    <t>Site should open</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Not executed</t>
+  </si>
+  <si>
+    <t>Enter Userid &amp; Password</t>
+  </si>
+  <si>
+    <t>Credential can be entered</t>
+  </si>
+  <si>
+    <t>Click Submit</t>
+  </si>
+  <si>
+    <t>Cutomer is logged in</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Defects Created</t>
+  </si>
+  <si>
+    <t>DF-001: Home page is not displayed upon logging in</t>
+  </si>
   <si>
     <t>Title</t>
   </si>
@@ -58,113 +207,62 @@
     <t>Incidence / Severity / Probability of reproduction</t>
   </si>
   <si>
-    <t>100% reproduction rate</t>
-  </si>
-  <si>
     <t>Story and Acceptance Criteria affected</t>
   </si>
   <si>
     <t>Browsers tested</t>
   </si>
   <si>
-    <t>Google Chrome, v107</t>
-  </si>
-  <si>
     <t>Environment</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Error al ingresar el mail</t>
-  </si>
-  <si>
-    <t>Debería perdir el mail y tras validarlo mostrar el formulario</t>
-  </si>
-  <si>
-    <t>1- Abrir la aplicación</t>
-  </si>
-  <si>
-    <t>2- Clic en Sign in</t>
-  </si>
-  <si>
-    <t>3- Clic en Register here</t>
-  </si>
-  <si>
-    <t>La página muestra un campo para llenar el mail</t>
-  </si>
-  <si>
-    <t>La página muestra el formulario</t>
-  </si>
-  <si>
-    <t>Incidencia - El formulario se muestra antes de validar que el mail no exista</t>
-  </si>
-  <si>
-    <t>4- Ingreso de mail</t>
-  </si>
-  <si>
-    <t>Affected User Story: MT-01</t>
-  </si>
-  <si>
-    <t>QA environment, http://127.0.0.1:5000/</t>
-  </si>
-  <si>
-    <t>Error al ingresar la fecha de nacimiento</t>
-  </si>
-  <si>
-    <t>Debería estar el campo fecha de nacimiento para ingresar</t>
-  </si>
-  <si>
-    <t>5- Completar campo "First Name"</t>
-  </si>
-  <si>
-    <t>6- Completar campo "Last Name"</t>
-  </si>
-  <si>
-    <t>7- Completar campo "Password"</t>
-  </si>
-  <si>
-    <t>8- Completar campo "Date of birth"</t>
-  </si>
-  <si>
-    <t>Se permite cargar la fecha de nacimiento</t>
-  </si>
-  <si>
-    <t>No está el campo para ingresar la fecha de nacimiento</t>
-  </si>
-  <si>
-    <t>Incidencia Crítica - No está el campo Fecha de Nacimiento</t>
-  </si>
-  <si>
-    <t>Al leer la historia de usuario se entendía que se abría una pestaña o saldría un cartel que notificaría si el mail ingresado está en uso o no.</t>
-  </si>
-  <si>
-    <t>En la historia de usuario se indicaba que la fecha de nacimiento era un dato obligatorio a completar, pero al ejecutar el caso de prueba verificamos que el campo ni siquiera existe.</t>
-  </si>
-  <si>
-    <t>Error al ingresar un mail existente</t>
-  </si>
-  <si>
-    <t>4- Ingreso de mail existente</t>
-  </si>
-  <si>
-    <t>La página muestra un mensaje diciendo que el mail está en uso</t>
-  </si>
-  <si>
-    <t>Incidencia Crítica - El formulario se muestra antes de validar que el mail no exista</t>
-  </si>
-  <si>
-    <t>Affected User Story: MT-01 -MT-02</t>
-  </si>
-  <si>
-    <t>3- Clic en Register Here</t>
+    <t>Campos inexistentes en el perfil</t>
+  </si>
+  <si>
+    <t>Se intentaron modificar campos que figuraban en la historia de usuario, pero no en la app (Birth date y Secondary Mail)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Abrir la aplicación </t>
+  </si>
+  <si>
+    <t>2- Ingresar usuario y contraseña válidos</t>
+  </si>
+  <si>
+    <t>3- Ir a la sección "Your profile"</t>
+  </si>
+  <si>
+    <t>4- Ir a la sección "Edit profile"</t>
+  </si>
+  <si>
+    <t>Se muestra el formulario con los campos "Birth date" (obligatorio) y Secondary Mail (opcional)</t>
+  </si>
+  <si>
+    <t>Se muestra el formulario, pero no contiene los campos indicados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja </t>
+  </si>
+  <si>
+    <t>PE-16 y PE-53</t>
+  </si>
+  <si>
+    <t>Microsoft Edge, v107</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/account/profile/edit</t>
+  </si>
+  <si>
+    <t>Los campos faltantes afectarían directamente a la funcionabilidad de la app - 100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +280,87 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,8 +373,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +394,18 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -265,66 +460,54 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -338,15 +521,17 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -355,42 +540,365 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C558A088-66ED-4D97-B86E-4769E988BE41}"/>
     <cellStyle name="Note 2" xfId="2" xr:uid="{4BAC1941-5BF2-43E8-B9DC-8FEA0AFAB3F9}"/>
@@ -704,423 +1212,698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19C3A39-FFB1-416B-9AA1-6DCAB5934A9A}">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="67.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="3"/>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="57"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="G14" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+    </row>
+    <row r="15" spans="1:23" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="54"/>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="52"/>
+      <c r="I16" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="52"/>
+      <c r="K16" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="52"/>
+      <c r="M16" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="52"/>
+    </row>
+    <row r="17" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="G17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="E18" s="49"/>
+      <c r="G18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>2</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="49"/>
+      <c r="G19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B20" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="G20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="55"/>
+    </row>
+    <row r="26" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+    </row>
+    <row r="27" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+    </row>
+    <row r="28" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+    </row>
+    <row r="29" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+    </row>
+    <row r="30" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
     </row>
   </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F706D053-1F83-4768-9A3C-776459F7524D}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19C3A39-FFB1-416B-9AA1-6DCAB5934A9A}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="67.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" style="32" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
+      <c r="A1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
+      <c r="A5" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
+      <c r="A6" s="64"/>
+      <c r="B6" s="39" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
+      <c r="A7" s="64"/>
+      <c r="B7" s="39" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
+      <c r="A8" s="64"/>
+      <c r="B8" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBBA7A4-17F4-4877-99CF-14892A081561}">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="67.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
+      <c r="A12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
+      <c r="A14" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>6</v>
+      <c r="A15" s="64"/>
+      <c r="B15" s="35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>38</v>
+      <c r="A17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>9</v>
+      <c r="A19" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="A21" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="38"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{DF24E047-8ED3-4BA4-A476-1211F8E35C87}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006CB1A51B3A996C44B977E632F6DEC33D" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7acb4df2cee03e09cb10b9d875c2fcdd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="66b336d3-04c8-489c-ac96-6a14a2b4331d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="39a0258901cc0d38c32372739686e663" ns2:_="">
     <xsd:import namespace="66b336d3-04c8-489c-ac96-6a14a2b4331d"/>
@@ -1258,24 +2041,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F33236-0234-4F58-AB18-4BF6DA61EA57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B3F5DA2-BED8-4604-AB0E-DD92EF7CB70B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95DC2591-C869-435C-97CF-69CE881B2C19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1291,4 +2072,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B3F5DA2-BED8-4604-AB0E-DD92EF7CB70B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F33236-0234-4F58-AB18-4BF6DA61EA57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>